--- a/importFiles/demo1.xlsx
+++ b/importFiles/demo1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\portal\assignmentFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorathiya\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCD85C-8557-4244-A39E-DD237B685BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C8ABAB-6382-4D76-BF6E-015086D63AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A116082F-CFF9-4853-B58C-0459DE931919}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>Web</t>
   </si>
@@ -129,10 +129,25 @@
     <t>percentage</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>internal</t>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>Mathematics</t>
@@ -207,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,13 +910,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" customWidth="1"/>
@@ -941,14 +956,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="6">
-        <v>44530</v>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -957,25 +972,25 @@
         <v>32</v>
       </c>
       <c r="G2" s="1">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="6">
-        <v>44530</v>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -984,25 +999,25 @@
         <v>32</v>
       </c>
       <c r="G3" s="1">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="6">
-        <v>44530</v>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
@@ -1011,25 +1026,25 @@
         <v>32</v>
       </c>
       <c r="G4" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="6">
-        <v>44530</v>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -1038,233 +1053,234 @@
         <v>32</v>
       </c>
       <c r="G5" s="1">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="6">
-        <v>44530</v>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="1">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="6">
-        <v>44530</v>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="6">
-        <v>44530</v>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="6">
-        <v>44530</v>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="H9" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="6">
-        <v>44530</v>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="6">
-        <v>44530</v>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="H11" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="6">
-        <v>44530</v>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="H12" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="6">
-        <v>44530</v>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="H13" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I13" s="1">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
